--- a/TestingPlan.xlsx
+++ b/TestingPlan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-18.04\home\ryan\Ruby\RubyWebsite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21484825-7138-4265-A80B-A7B8E089BE3E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4C9601B-2742-4C93-B8C9-798A5C983065}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21225" yWindow="3345" windowWidth="31335" windowHeight="15990" xr2:uid="{7A891BF7-FC02-40A4-AEEE-78F6C58F7248}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{7A891BF7-FC02-40A4-AEEE-78F6C58F7248}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="81">
   <si>
     <t>Test Number</t>
   </si>
@@ -147,6 +147,155 @@
   </si>
   <si>
     <t>Account Creation</t>
+  </si>
+  <si>
+    <t>Email has not been registered in application or Stripe</t>
+  </si>
+  <si>
+    <t>What is Being Tested</t>
+  </si>
+  <si>
+    <t>Account creation process</t>
+  </si>
+  <si>
+    <t>1. Clear cookies and sign up for a new subscription
+2. Check in the database that a user, order option, and shipping record have all been created with the appropriate values</t>
+  </si>
+  <si>
+    <t>Cannot advance the next step without completing the previous</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>1. Attempt to move to the next step without completing all of the fields while setting up a new subscription</t>
+  </si>
+  <si>
+    <t>Subscription process navbar</t>
+  </si>
+  <si>
+    <t>1. Verify that the navbar steps are not clickable until the step has been competed.  Also should only be able to backtrace</t>
+  </si>
+  <si>
+    <t>Add another vehicle</t>
+  </si>
+  <si>
+    <t>Dropdown values</t>
+  </si>
+  <si>
+    <t>1. Verify all the dropdowns are blank
+2. Select a vehicle and check that the model dropdown is correctly populated
+3. Select a model and verify the year dropdown is populated
+4. Change the model and verify the year dropdown gets repopulated with the correct values
+5. Change the make and verify the model dropdown gets repopulated with the correct values and the year dropdown is blank</t>
+  </si>
+  <si>
+    <t>Remove vehicle</t>
+  </si>
+  <si>
+    <t>1. Clear cookies and start the new subscription process
+2. Click "Add another vehicle" on the review step and verfiy it redirects to the start of the form
+3. Repeat until there are 3 vehicles selected and verify the "add another vehicle" button disappears
+4. Check in the DB to make sure 2 of the options are saved</t>
+  </si>
+  <si>
+    <t>1. Clear all cookies and start the new subscription process
+2. Select 1 vehicle, then click "remove vehicle"
+3. Verify a popup is displayed, then click ok
+4. Verify the "continue to checkout" button is disabled as well as all the navbar steps
+5. Click "add another vehicle" to start the process over</t>
+  </si>
+  <si>
+    <t>1. Clear all cookies and start the new subscription process
+2. Select 2 vehicles, then click "remove vehicle" on the vehicle farthest to the left
+3. Verify a popup is displayed, then click ok
+4. Verify the vehicle is removed but all the other buttons are enabled
+5. Check that the order option for that vehicle has been removed from the DB</t>
+  </si>
+  <si>
+    <t>2-1</t>
+  </si>
+  <si>
+    <t>2-2</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>2-4</t>
+  </si>
+  <si>
+    <t>2-5</t>
+  </si>
+  <si>
+    <t>2-6</t>
+  </si>
+  <si>
+    <t>2-7</t>
+  </si>
+  <si>
+    <t>2-8</t>
+  </si>
+  <si>
+    <t>2-9</t>
+  </si>
+  <si>
+    <t>2-10</t>
+  </si>
+  <si>
+    <t>2-11</t>
+  </si>
+  <si>
+    <t>2-12</t>
+  </si>
+  <si>
+    <t>2-13</t>
+  </si>
+  <si>
+    <t>2-14</t>
+  </si>
+  <si>
+    <t>2-15</t>
+  </si>
+  <si>
+    <t>2-16</t>
+  </si>
+  <si>
+    <t>2-17</t>
+  </si>
+  <si>
+    <t>2-18</t>
+  </si>
+  <si>
+    <t>2-19</t>
+  </si>
+  <si>
+    <t>2-20</t>
+  </si>
+  <si>
+    <t>2-21</t>
+  </si>
+  <si>
+    <t>Shipping Charge</t>
+  </si>
+  <si>
+    <t>Existing account</t>
+  </si>
+  <si>
+    <t>Shipping charged on all new orders</t>
+  </si>
+  <si>
+    <t>Shipping is not charged on first subscription</t>
+  </si>
+  <si>
+    <t>1. Add a new subscription to an existing account
+2. Verify that in the Stripe invoice, the customer was charged for shipping
+3. Verify that the shipping included flag is true in the database</t>
+  </si>
+  <si>
+    <t>1. Create a new subscription
+2. Verify that in the Stripe invoice, the customer was not charged for shipping
+3. Verify in the DB that the shipping included flag is false for all the orders created</t>
   </si>
 </sst>
 </file>
@@ -524,10 +673,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB24EEBE-C504-4326-9FFB-0C6707DE6742}">
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:E56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -535,10 +684,11 @@
     <col min="1" max="1" width="13.7109375" style="3" customWidth="1"/>
     <col min="2" max="2" width="34" style="2" customWidth="1"/>
     <col min="3" max="3" width="42.42578125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="56.140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="43.28515625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="56.140625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -549,42 +699,81 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
@@ -592,7 +781,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
@@ -600,7 +789,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
@@ -608,7 +797,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
@@ -616,7 +805,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
@@ -624,7 +813,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>13</v>
       </c>
@@ -632,7 +821,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>14</v>
       </c>
@@ -640,7 +829,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>15</v>
       </c>
@@ -648,7 +837,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>16</v>
       </c>
@@ -656,7 +845,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>17</v>
       </c>
@@ -664,7 +853,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>18</v>
       </c>
@@ -672,7 +861,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>19</v>
       </c>
@@ -680,31 +869,58 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C19" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C20" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>23</v>
       </c>
@@ -712,7 +928,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>24</v>
       </c>
@@ -720,7 +936,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>25</v>
       </c>
@@ -728,7 +944,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>26</v>
       </c>
@@ -736,7 +952,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>27</v>
       </c>
@@ -744,7 +960,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>28</v>
       </c>
@@ -752,7 +968,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>29</v>
       </c>
@@ -760,7 +976,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>30</v>
       </c>
@@ -768,7 +984,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>31</v>
       </c>
@@ -776,7 +992,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>32</v>
       </c>
@@ -784,7 +1000,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>33</v>
       </c>
@@ -792,7 +1008,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>34</v>
       </c>
@@ -800,7 +1016,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>35</v>
       </c>
@@ -808,12 +1024,141 @@
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>36</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>37</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="3" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/TestingPlan.xlsx
+++ b/TestingPlan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-18.04\home\ryan\Ruby\RubyWebsite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4C9601B-2742-4C93-B8C9-798A5C983065}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{646BB6DF-0550-4BAE-8429-42B7AC215FEC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{7A891BF7-FC02-40A4-AEEE-78F6C58F7248}"/>
+    <workbookView xWindow="7725" yWindow="4515" windowWidth="28800" windowHeight="15300" xr2:uid="{7A891BF7-FC02-40A4-AEEE-78F6C58F7248}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="54">
   <si>
     <t>Test Number</t>
   </si>
@@ -211,91 +211,6 @@
 3. Verify a popup is displayed, then click ok
 4. Verify the vehicle is removed but all the other buttons are enabled
 5. Check that the order option for that vehicle has been removed from the DB</t>
-  </si>
-  <si>
-    <t>2-1</t>
-  </si>
-  <si>
-    <t>2-2</t>
-  </si>
-  <si>
-    <t>2-3</t>
-  </si>
-  <si>
-    <t>2-4</t>
-  </si>
-  <si>
-    <t>2-5</t>
-  </si>
-  <si>
-    <t>2-6</t>
-  </si>
-  <si>
-    <t>2-7</t>
-  </si>
-  <si>
-    <t>2-8</t>
-  </si>
-  <si>
-    <t>2-9</t>
-  </si>
-  <si>
-    <t>2-10</t>
-  </si>
-  <si>
-    <t>2-11</t>
-  </si>
-  <si>
-    <t>2-12</t>
-  </si>
-  <si>
-    <t>2-13</t>
-  </si>
-  <si>
-    <t>2-14</t>
-  </si>
-  <si>
-    <t>2-15</t>
-  </si>
-  <si>
-    <t>2-16</t>
-  </si>
-  <si>
-    <t>2-17</t>
-  </si>
-  <si>
-    <t>2-18</t>
-  </si>
-  <si>
-    <t>2-19</t>
-  </si>
-  <si>
-    <t>2-20</t>
-  </si>
-  <si>
-    <t>2-21</t>
-  </si>
-  <si>
-    <t>Shipping Charge</t>
-  </si>
-  <si>
-    <t>Existing account</t>
-  </si>
-  <si>
-    <t>Shipping charged on all new orders</t>
-  </si>
-  <si>
-    <t>Shipping is not charged on first subscription</t>
-  </si>
-  <si>
-    <t>1. Add a new subscription to an existing account
-2. Verify that in the Stripe invoice, the customer was charged for shipping
-3. Verify that the shipping included flag is true in the database</t>
-  </si>
-  <si>
-    <t>1. Create a new subscription
-2. Verify that in the Stripe invoice, the customer was not charged for shipping
-3. Verify in the DB that the shipping included flag is false for all the orders created</t>
   </si>
 </sst>
 </file>
@@ -673,10 +588,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB24EEBE-C504-4326-9FFB-0C6707DE6742}">
-  <dimension ref="A1:E56"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1016,7 +931,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>35</v>
       </c>
@@ -1024,141 +939,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>36</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" s="3" t="s">
-        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/TestingPlan.xlsx
+++ b/TestingPlan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-18.04\home\ryan\Ruby\RubyWebsite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{646BB6DF-0550-4BAE-8429-42B7AC215FEC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13C04FBC-9982-495F-8DD4-B8576919F9A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7725" yWindow="4515" windowWidth="28800" windowHeight="15300" xr2:uid="{7A891BF7-FC02-40A4-AEEE-78F6C58F7248}"/>
+    <workbookView xWindow="16275" yWindow="2580" windowWidth="28800" windowHeight="15300" xr2:uid="{7A891BF7-FC02-40A4-AEEE-78F6C58F7248}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="57">
   <si>
     <t>Test Number</t>
   </si>
@@ -156,10 +156,6 @@
   </si>
   <si>
     <t>Account creation process</t>
-  </si>
-  <si>
-    <t>1. Clear cookies and sign up for a new subscription
-2. Check in the database that a user, order option, and shipping record have all been created with the appropriate values</t>
   </si>
   <si>
     <t>Cannot advance the next step without completing the previous</t>
@@ -193,24 +189,43 @@
     <t>Remove vehicle</t>
   </si>
   <si>
-    <t>1. Clear cookies and start the new subscription process
+    <t>Edit order</t>
+  </si>
+  <si>
+    <t>1. Sign up for a new subscription
+2. Check in the database that a user, order option, and shipping record have all been created with the appropriate values</t>
+  </si>
+  <si>
+    <t>1. Start the new subscription process
 2. Click "Add another vehicle" on the review step and verfiy it redirects to the start of the form
 3. Repeat until there are 3 vehicles selected and verify the "add another vehicle" button disappears
 4. Check in the DB to make sure 2 of the options are saved</t>
   </si>
   <si>
-    <t>1. Clear all cookies and start the new subscription process
+    <t>1. Start the new subscription process
 2. Select 1 vehicle, then click "remove vehicle"
 3. Verify a popup is displayed, then click ok
 4. Verify the "continue to checkout" button is disabled as well as all the navbar steps
 5. Click "add another vehicle" to start the process over</t>
   </si>
   <si>
-    <t>1. Clear all cookies and start the new subscription process
+    <t>1.Start the new subscription process
 2. Select 2 vehicles, then click "remove vehicle" on the vehicle farthest to the left
 3. Verify a popup is displayed, then click ok
 4. Verify the vehicle is removed but all the other buttons are enabled
 5. Check that the order option for that vehicle has been removed from the DB</t>
+  </si>
+  <si>
+    <t>1. Add 2 vehicles to a new order and click "continue to checkout"
+2. Click "edit vehicles" then remove 1 of the vehicles that was just added
+3. Click "continue to checkout" and make sure the changes are reflected in the checkout page
+4. Verify the correct records are in the database</t>
+  </si>
+  <si>
+    <t>1. Add 1 vehicle to a new order and click "continue to checkout"
+2. Click "edit vehicles" then remove the vehicle that was just added
+3. Verify the "continue to checkout" button is disabled and the "add another vehicle button" works
+4. Check that the correct records are in the database</t>
   </si>
 </sst>
 </file>
@@ -240,12 +255,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -260,7 +281,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -274,6 +295,13 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -590,8 +618,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB24EEBE-C504-4326-9FFB-0C6707DE6742}">
   <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -634,7 +662,7 @@
         <v>40</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="90" x14ac:dyDescent="0.25">
@@ -648,10 +676,10 @@
         <v>38</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="90" x14ac:dyDescent="0.25">
@@ -665,10 +693,10 @@
         <v>38</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="120" x14ac:dyDescent="0.25">
@@ -682,26 +710,44 @@
         <v>38</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="7" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="E6" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="7" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>37</v>
+      <c r="B7" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -792,13 +838,13 @@
         <v>37</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D18" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -809,13 +855,13 @@
         <v>37</v>
       </c>
       <c r="C19" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -826,13 +872,13 @@
         <v>37</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D20" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
